--- a/CastReporting.Reporting.Core/Templates/Application/Compliance reports/NIST-SP800-53R4 Full Detailed Report.xlsx
+++ b/CastReporting.Reporting.Core/Templates/Application/Compliance reports/NIST-SP800-53R4 Full Detailed Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Dev\ReportGenerator\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Compliance reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB36151F-EDEA-4444-9FCC-81F5F06DFE98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FEDC64-1BB3-4D1F-8E62-67F917C88151}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="827" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="67">
   <si>
     <t>Application Name:</t>
   </si>
@@ -85,45 +85,24 @@
     <t>RepGen:TEXT;METRIC_TECHNICAL_DEBT</t>
   </si>
   <si>
-    <t>RepGen:TABLE;TECHNICAL_SIZING</t>
-  </si>
-  <si>
-    <t>RepGen:TABLE;TECHNO_LOC</t>
-  </si>
-  <si>
     <t>Application characteristics</t>
   </si>
   <si>
-    <t>RepGen:TABLE;QUALITY_STANDARDS_EVOLUTION;STD=NIST-SP-800-53R4,MORE=true</t>
-  </si>
-  <si>
     <t>Findings summary for CAST under NIST-SP800-53R4</t>
   </si>
   <si>
     <t>NIST-SP800-53R4 Compliance details</t>
   </si>
   <si>
-    <t>RepGen:TABLE;QUALITY_TAGS_RULES_EVOLUTION;STD=NIST-SP-800-53R4-AC</t>
-  </si>
-  <si>
     <t>CAST findings for NIST SP800 53R4 Access Control</t>
   </si>
   <si>
     <t>CAST findings details for NIST SP800 53R4 Access Control</t>
   </si>
   <si>
-    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS;METRICS=NIST-SP-800-53R4-AC,COUNT=-1</t>
-  </si>
-  <si>
     <t>CAST findings for NIST SP800 53R4 Audit and Accountability Controls</t>
   </si>
   <si>
-    <t>RepGen:TABLE;QUALITY_TAGS_RULES_EVOLUTION;STD=NIST-SP-800-53R4-AU</t>
-  </si>
-  <si>
-    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS;METRICS=NIST-SP-800-53R4-AU,COUNT=-1</t>
-  </si>
-  <si>
     <t>CAST findings details for NIST SP800 53R4 Audit and Accountability Controls</t>
   </si>
   <si>
@@ -133,30 +112,12 @@
     <t>CAST findings details for NIST SP800 53R4 Security Assessment and Authorization Controls</t>
   </si>
   <si>
-    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS;METRICS=NIST-SP-800-53R4-CA,COUNT=-1</t>
-  </si>
-  <si>
-    <t>RepGen:TABLE;QUALITY_TAGS_RULES_EVOLUTION;STD=NIST-SP-800-53R4-CA</t>
-  </si>
-  <si>
-    <t>RepGen:TABLE;QUALITY_TAGS_RULES_EVOLUTION;STD=NIST-SP-800-53R4-CM</t>
-  </si>
-  <si>
-    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS;METRICS=NIST-SP-800-53R4-CM,COUNT=-1</t>
-  </si>
-  <si>
     <t>CAST findings details for NIST SP800 53R4 Configuration Management Controls</t>
   </si>
   <si>
     <t>CAST findings for NIST SP800 53R4 Configuration Management Controls</t>
   </si>
   <si>
-    <t>RepGen:TABLE;QUALITY_TAGS_RULES_EVOLUTION;STD=NIST-SP-800-53R4-IA</t>
-  </si>
-  <si>
-    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS;METRICS=NIST-SP-800-53R4-IA,COUNT=-1</t>
-  </si>
-  <si>
     <t>CAST findings details for NIST SP800 53R4 Identification and Authentication Controls</t>
   </si>
   <si>
@@ -169,34 +130,130 @@
     <t>CAST findings for NIST SP800 53R4 System and Service Acquisitions Controls</t>
   </si>
   <si>
-    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS;METRICS=NIST-SP-800-53R4-SA,COUNT=-1</t>
-  </si>
-  <si>
-    <t>RepGen:TABLE;QUALITY_TAGS_RULES_EVOLUTION;STD=NIST-SP-800-53R4-SA</t>
-  </si>
-  <si>
-    <t>RepGen:TABLE;QUALITY_TAGS_RULES_EVOLUTION;STD=NIST-SP-800-53R4-SC</t>
-  </si>
-  <si>
-    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS;METRICS=NIST-SP-800-53R4-SC,COUNT=-1</t>
-  </si>
-  <si>
     <t>CAST findings details for NIST SP800 53R4 System and Communication Protection Controls</t>
   </si>
   <si>
     <t>CAST findings for NIST SP800 53R4 System and Communication Protection Controls</t>
   </si>
   <si>
-    <t>RepGen:TABLE;QUALITY_TAGS_RULES_EVOLUTION;STD=NIST-SP-800-53R4-SI</t>
-  </si>
-  <si>
-    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS;METRICS=NIST-SP-800-53R4-SI,COUNT=-1</t>
-  </si>
-  <si>
     <t>CAST findings details for NIST SP800 53R4 System and Information Integrity Controls</t>
   </si>
   <si>
     <t>CAST findings for NIST SP800 53R4 System and Information Integrity Controls</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Lines of Code</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;TECHNO_LOC;HEADER=NO</t>
+  </si>
+  <si>
+    <t>Characteristic</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;TECHNICAL_SIZING;HEADER=NO</t>
+  </si>
+  <si>
+    <t>Quality Standard</t>
+  </si>
+  <si>
+    <t>Total Vulnerabilities</t>
+  </si>
+  <si>
+    <t>Added Vulnerabilities</t>
+  </si>
+  <si>
+    <t>Removed Vulnerabilities</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;QUALITY_STANDARDS_EVOLUTION;STD=NIST-SP-800-53R4,MORE=true,HEADER=NO</t>
+  </si>
+  <si>
+    <t>Rationale</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Remediation</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;QUALITY_TAGS_RULES_EVOLUTION;STD=NIST-SP-800-53R4-AC,DESC=true,HEADER=NO</t>
+  </si>
+  <si>
+    <t>Rule Name</t>
+  </si>
+  <si>
+    <t>Object Name</t>
+  </si>
+  <si>
+    <t>Object Type</t>
+  </si>
+  <si>
+    <t>Violation Status</t>
+  </si>
+  <si>
+    <t>Associated Value</t>
+  </si>
+  <si>
+    <t>File Path</t>
+  </si>
+  <si>
+    <t>Start Line</t>
+  </si>
+  <si>
+    <t>End Line</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=NIST-SP-800-53R4-AC,COUNT=-1,HEADER=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;QUALITY_TAGS_RULES_EVOLUTION;STD=NIST-SP-800-53R4-AU,DESC=true,HEADER=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=NIST-SP-800-53R4-AU,COUNT=-1,HEADER=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;QUALITY_TAGS_RULES_EVOLUTION;STD=NIST-SP-800-53R4-CA,DESC=true,HEADER=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=NIST-SP-800-53R4-CA,COUNT=-1,HEADER=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;QUALITY_TAGS_RULES_EVOLUTION;STD=NIST-SP-800-53R4-CM,DESC=true,HEADER=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=NIST-SP-800-53R4-CM,COUNT=-1,HEADER=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;QUALITY_TAGS_RULES_EVOLUTION;STD=NIST-SP-800-53R4-IA,DESC=true,HEADER=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=NIST-SP-800-53R4-IA,COUNT=-1,HEADER=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;QUALITY_TAGS_RULES_EVOLUTION;STD=NIST-SP-800-53R4-SA,DESC=true,HEADER=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=NIST-SP-800-53R4-SA,COUNT=-1,HEADER=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;QUALITY_TAGS_RULES_EVOLUTION;STD=NIST-SP-800-53R4-SC,DESC=true,HEADER=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=NIST-SP-800-53R4-SC,COUNT=-1,HEADER=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;QUALITY_TAGS_RULES_EVOLUTION;STD=NIST-SP-800-53R4-SI,DESC=true,HEADER=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=NIST-SP-800-53R4-SI,COUNT=-1,HEADER=NO</t>
   </si>
 </sst>
 </file>
@@ -403,7 +460,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -473,6 +530,16 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -850,10 +917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:O13"/>
+  <dimension ref="B1:O14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -884,7 +951,7 @@
     </row>
     <row r="2" spans="2:15" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="2"/>
@@ -929,27 +996,59 @@
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="26"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C8" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>10</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D9" s="26"/>
       <c r="N9" s="17"/>
       <c r="O9" s="16"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B12" s="19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" ht="34.200000000000003" x14ac:dyDescent="0.3">
+      <c r="B13" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -966,9 +1065,495 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E7E084B-1D41-49A1-AAE8-65E5FD99EAE8}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="88.21875" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.44140625" customWidth="1"/>
+    <col min="6" max="6" width="44.88671875" customWidth="1"/>
+    <col min="7" max="7" width="37.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60019302-308A-442F-B9EA-3F649E847332}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="100.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.109375" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6184CFD3-505D-44C0-8258-50A02CF4F83B}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="87.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.6640625" customWidth="1"/>
+    <col min="6" max="6" width="27.44140625" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68947EEB-3915-46CA-938B-9EF94DC11C5F}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="100.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.109375" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40429C24-E986-40B1-9C54-93D6527149C0}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="92.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.109375" customWidth="1"/>
+    <col min="6" max="6" width="50" customWidth="1"/>
+    <col min="7" max="7" width="58" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43EB8EA9-CBE4-4B5D-A35C-7E148B322568}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="100.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.77734375" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398772F4-1EC0-446D-8794-6788C8DEC765}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="86.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.44140625" customWidth="1"/>
+    <col min="6" max="6" width="44" customWidth="1"/>
+    <col min="7" max="7" width="62" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E33A766-BEF1-4CAD-9B15-BE530492E644}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="100.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.77734375" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -976,18 +1561,44 @@
     <col min="2" max="2" width="24.5546875" customWidth="1"/>
     <col min="3" max="3" width="27.6640625" customWidth="1"/>
     <col min="4" max="4" width="23.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
+    <col min="5" max="5" width="34.21875" customWidth="1"/>
+    <col min="6" max="6" width="42.6640625" customWidth="1"/>
+    <col min="7" max="7" width="42.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -995,28 +1606,60 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60019302-308A-442F-B9EA-3F649E847332}">
-  <dimension ref="A1:A2"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00038B0F-4F74-4ACF-8A7F-FE15A067CF76}">
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="175.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="100.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.109375" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>33</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1025,9 +1668,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6184CFD3-505D-44C0-8258-50A02CF4F83B}">
-  <dimension ref="A1:A2"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C28B7BF-B505-460E-B5F5-CEF317C8DA21}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1039,18 +1682,44 @@
     <col min="2" max="2" width="24.5546875" customWidth="1"/>
     <col min="3" max="3" width="27.6640625" customWidth="1"/>
     <col min="4" max="4" width="23.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" customWidth="1"/>
+    <col min="6" max="6" width="50.44140625" customWidth="1"/>
+    <col min="7" max="7" width="50.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>39</v>
-      </c>
+      <c r="D1" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1058,28 +1727,60 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68947EEB-3915-46CA-938B-9EF94DC11C5F}">
-  <dimension ref="A1:A2"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D8D923-188E-4CB6-BF7E-B970F3C6E30D}">
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="175.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="100.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>38</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1088,12 +1789,133 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40429C24-E986-40B1-9C54-93D6527149C0}">
-  <dimension ref="A1:A2"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79906E84-4B34-4770-9305-4F2F91D7EFE1}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="92.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.44140625" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="7" max="7" width="35.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC577CBB-D408-44A0-A911-378AA65DFFF8}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="100.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.77734375" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB41B1C-9240-4348-9FC9-45CED54B99B9}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1101,19 +1923,45 @@
     <col min="1" max="1" width="88.21875" customWidth="1"/>
     <col min="2" max="2" width="24.5546875" customWidth="1"/>
     <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.5546875" customWidth="1"/>
+    <col min="6" max="6" width="47.77734375" customWidth="1"/>
+    <col min="7" max="7" width="47.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>40</v>
       </c>
+      <c r="F1" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1121,335 +1969,60 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43EB8EA9-CBE4-4B5D-A35C-7E148B322568}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="175.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398772F4-1EC0-446D-8794-6788C8DEC765}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="88.21875" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E33A766-BEF1-4CAD-9B15-BE530492E644}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="175.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:A2"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEDA8E1-603E-4AFF-9626-7A5FC25447BA}">
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="88.21875" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
+    <col min="1" max="1" width="100.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.77734375" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.77734375" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00038B0F-4F74-4ACF-8A7F-FE15A067CF76}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="175.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
         <v>19</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C28B7BF-B505-460E-B5F5-CEF317C8DA21}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="88.21875" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D8D923-188E-4CB6-BF7E-B970F3C6E30D}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="175.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79906E84-4B34-4770-9305-4F2F91D7EFE1}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="88.21875" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC577CBB-D408-44A0-A911-378AA65DFFF8}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="175.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB41B1C-9240-4348-9FC9-45CED54B99B9}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="88.21875" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEDA8E1-603E-4AFF-9626-7A5FC25447BA}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="175.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>29</v>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/CastReporting.Reporting.Core/Templates/Application/Compliance reports/NIST-SP800-53R4 Full Detailed Report.xlsx
+++ b/CastReporting.Reporting.Core/Templates/Application/Compliance reports/NIST-SP800-53R4 Full Detailed Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Dev\ReportGenerator\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Compliance reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FEDC64-1BB3-4D1F-8E62-67F917C88151}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA163D0A-E254-4AB8-860E-7BE537DE37FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="827" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -460,7 +460,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -516,19 +516,10 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -540,6 +531,9 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -920,7 +914,7 @@
   <dimension ref="B1:O14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -946,8 +940,8 @@
       <c r="E1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="2:15" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
@@ -960,13 +954,13 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
+      <c r="D3" s="11"/>
       <c r="E3" s="12"/>
       <c r="F3" s="9" t="s">
         <v>4</v>
@@ -976,13 +970,13 @@
       </c>
     </row>
     <row r="4" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="D4" s="4"/>
       <c r="E4" s="13"/>
       <c r="F4" s="7" t="s">
         <v>2</v>
@@ -1009,7 +1003,7 @@
       <c r="C7" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="26"/>
+      <c r="D7" s="23"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C8" s="18" t="s">
@@ -1023,7 +1017,7 @@
       <c r="C9" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="26"/>
+      <c r="D9" s="23"/>
       <c r="N9" s="17"/>
       <c r="O9" s="16"/>
     </row>
@@ -1036,13 +1030,13 @@
       <c r="B13" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="24" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1052,10 +1046,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1106,15 +1098,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1227,15 +1219,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1348,15 +1340,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1469,15 +1461,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1590,15 +1582,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1711,15 +1703,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1832,15 +1824,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1953,15 +1945,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CastReporting.Reporting.Core/Templates/Application/Compliance reports/NIST-SP800-53R4 Full Detailed Report.xlsx
+++ b/CastReporting.Reporting.Core/Templates/Application/Compliance reports/NIST-SP800-53R4 Full Detailed Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Dev\ReportGenerator\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Compliance reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA163D0A-E254-4AB8-860E-7BE537DE37FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E142928-4119-42DC-BDEB-3C3E94506597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="827" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="827" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
@@ -61,9 +61,6 @@
     <t>Snapshot date:</t>
   </si>
   <si>
-    <t>Technical Debt:</t>
-  </si>
-  <si>
     <t>Generated on:</t>
   </si>
   <si>
@@ -82,9 +79,6 @@
     <t>RepGen:TEXT;LAST_SNAPSHOT_DATE</t>
   </si>
   <si>
-    <t>RepGen:TEXT;METRIC_TECHNICAL_DEBT</t>
-  </si>
-  <si>
     <t>Application characteristics</t>
   </si>
   <si>
@@ -254,6 +248,12 @@
   </si>
   <si>
     <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=NIST-SP-800-53R4-SI,COUNT=-1,HEADER=NO</t>
+  </si>
+  <si>
+    <t>ISO Technical Debt:</t>
+  </si>
+  <si>
+    <t>RepGen:TEXT;OMG_TECHNICAL_DEBT</t>
   </si>
 </sst>
 </file>
@@ -578,7 +578,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>432089</xdr:colOff>
+      <xdr:colOff>302202</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>245918</xdr:rowOff>
     </xdr:to>
@@ -914,38 +914,38 @@
   <dimension ref="B1:O14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" customWidth="1"/>
-    <col min="2" max="2" width="75.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="2" max="2" width="75.28515625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5546875" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" customWidth="1"/>
-    <col min="13" max="13" width="36.6640625" customWidth="1"/>
-    <col min="14" max="14" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+    <col min="13" max="13" width="36.7109375" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D1" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
     </row>
-    <row r="2" spans="2:15" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="2"/>
@@ -953,96 +953,96 @@
       <c r="F2" s="2"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="12"/>
       <c r="F3" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="22" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="13"/>
       <c r="F4" s="7" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D7" s="23"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C8" s="18" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
+      <c r="D8" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="23"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C8" s="18" t="s">
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
         <v>32</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
-        <v>34</v>
       </c>
       <c r="D9" s="23"/>
       <c r="N9" s="17"/>
       <c r="O9" s="16"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" ht="34.200000000000003" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" ht="33.75" x14ac:dyDescent="0.25">
       <c r="B13" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="E13" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="24" t="s">
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>37</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1063,43 +1063,43 @@
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="88.21875" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.44140625" customWidth="1"/>
-    <col min="6" max="6" width="44.88671875" customWidth="1"/>
-    <col min="7" max="7" width="37.44140625" customWidth="1"/>
+    <col min="1" max="1" width="88.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.42578125" customWidth="1"/>
+    <col min="6" max="6" width="44.85546875" customWidth="1"/>
+    <col min="7" max="7" width="37.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -1122,52 +1122,52 @@
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="100.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.109375" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="100.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1184,43 +1184,43 @@
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="87.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.6640625" customWidth="1"/>
-    <col min="6" max="6" width="27.44140625" customWidth="1"/>
-    <col min="7" max="7" width="18.5546875" customWidth="1"/>
+    <col min="1" max="1" width="87.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.7109375" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -1243,52 +1243,52 @@
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="100.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.109375" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="100.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1305,43 +1305,43 @@
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="92.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="92.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="57.109375" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.140625" customWidth="1"/>
     <col min="6" max="6" width="50" customWidth="1"/>
     <col min="7" max="7" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B1" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -1364,52 +1364,52 @@
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="100.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.77734375" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="100.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1426,43 +1426,43 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="86.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="86.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.44140625" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.42578125" customWidth="1"/>
     <col min="6" max="6" width="44" customWidth="1"/>
     <col min="7" max="7" width="62" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -1485,52 +1485,52 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="100.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.77734375" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="100.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1547,43 +1547,43 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="88.21875" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
-    <col min="5" max="5" width="34.21875" customWidth="1"/>
-    <col min="6" max="6" width="42.6640625" customWidth="1"/>
-    <col min="7" max="7" width="42.88671875" customWidth="1"/>
+    <col min="1" max="1" width="88.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="34.28515625" customWidth="1"/>
+    <col min="6" max="6" width="42.7109375" customWidth="1"/>
+    <col min="7" max="7" width="42.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B1" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="20" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
         <v>41</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
-        <v>43</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -1606,52 +1606,52 @@
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="100.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.109375" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="100.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="20" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>50</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1668,43 +1668,43 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="88.21875" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
-    <col min="5" max="5" width="53.109375" customWidth="1"/>
-    <col min="6" max="6" width="50.44140625" customWidth="1"/>
-    <col min="7" max="7" width="50.88671875" customWidth="1"/>
+    <col min="1" max="1" width="88.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" customWidth="1"/>
+    <col min="6" max="6" width="50.42578125" customWidth="1"/>
+    <col min="7" max="7" width="50.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B1" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -1727,52 +1727,52 @@
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="100.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.88671875" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="100.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1789,43 +1789,43 @@
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="92.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.44140625" customWidth="1"/>
+    <col min="1" max="1" width="92.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="35.21875" customWidth="1"/>
+    <col min="7" max="7" width="35.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -1848,52 +1848,52 @@
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="100.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.109375" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.77734375" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="100.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1910,43 +1910,43 @@
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="88.21875" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="59.5546875" customWidth="1"/>
-    <col min="6" max="6" width="47.77734375" customWidth="1"/>
-    <col min="7" max="7" width="47.33203125" customWidth="1"/>
+    <col min="1" max="1" width="88.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.5703125" customWidth="1"/>
+    <col min="6" max="6" width="47.7109375" customWidth="1"/>
+    <col min="7" max="7" width="47.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -1969,52 +1969,52 @@
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="100.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.77734375" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.77734375" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="100.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/CastReporting.Reporting.Core/Templates/Application/Compliance reports/NIST-SP800-53R4 Full Detailed Report.xlsx
+++ b/CastReporting.Reporting.Core/Templates/Application/Compliance reports/NIST-SP800-53R4 Full Detailed Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Dev\ReportGenerator\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Compliance reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E142928-4119-42DC-BDEB-3C3E94506597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9C970D-6281-40F7-BCCC-CDEC01F7F06D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="827" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="827" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
@@ -166,9 +166,6 @@
     <t>Removed Vulnerabilities</t>
   </si>
   <si>
-    <t>RepGen:TABLE;QUALITY_STANDARDS_EVOLUTION;STD=NIST-SP-800-53R4,MORE=true,HEADER=NO</t>
-  </si>
-  <si>
     <t>Rationale</t>
   </si>
   <si>
@@ -254,6 +251,9 @@
   </si>
   <si>
     <t>RepGen:TEXT;OMG_TECHNICAL_DEBT</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;QUALITY_STANDARDS_EVOLUTION;STD=NIST-SP-800-53R4,MORE=true,HEADER=NO,EVOLUTION=true</t>
   </si>
 </sst>
 </file>
@@ -914,26 +914,26 @@
   <dimension ref="B1:O14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" customWidth="1"/>
-    <col min="2" max="2" width="75.28515625" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" customWidth="1"/>
+    <col min="2" max="2" width="75.33203125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" customWidth="1"/>
-    <col min="13" max="13" width="36.7109375" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5546875" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" customWidth="1"/>
+    <col min="13" max="13" width="36.6640625" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
@@ -943,7 +943,7 @@
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
     </row>
-    <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
@@ -953,7 +953,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
@@ -969,7 +969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="22" t="s">
         <v>1</v>
       </c>
@@ -979,16 +979,16 @@
       <c r="D4" s="4"/>
       <c r="E4" s="13"/>
       <c r="F4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" s="18" t="s">
         <v>8</v>
       </c>
@@ -999,13 +999,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="23"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C8" s="18" t="s">
         <v>30</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>32</v>
       </c>
@@ -1021,12 +1021,12 @@
       <c r="N9" s="17"/>
       <c r="O9" s="16"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B12" s="19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" ht="34.200000000000003" x14ac:dyDescent="0.3">
       <c r="B13" s="19" t="s">
         <v>33</v>
       </c>
@@ -1040,9 +1040,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1063,18 +1063,18 @@
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="88.28515625" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.42578125" customWidth="1"/>
-    <col min="6" max="6" width="44.85546875" customWidth="1"/>
-    <col min="7" max="7" width="37.42578125" customWidth="1"/>
+    <col min="1" max="1" width="88.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.44140625" customWidth="1"/>
+    <col min="6" max="6" width="44.88671875" customWidth="1"/>
+    <col min="7" max="7" width="37.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>20</v>
       </c>
@@ -1088,18 +1088,18 @@
         <v>36</v>
       </c>
       <c r="E1" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -1122,52 +1122,52 @@
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="100.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="100.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.109375" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="C2" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1184,18 +1184,18 @@
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="87.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.7109375" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="87.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.6640625" customWidth="1"/>
+    <col min="6" max="6" width="27.44140625" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>22</v>
       </c>
@@ -1209,18 +1209,18 @@
         <v>36</v>
       </c>
       <c r="E1" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -1243,52 +1243,52 @@
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="100.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="100.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.109375" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="C2" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1305,18 +1305,18 @@
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="92.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="92.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="57.140625" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.109375" customWidth="1"/>
     <col min="6" max="6" width="50" customWidth="1"/>
     <col min="7" max="7" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>24</v>
       </c>
@@ -1330,18 +1330,18 @@
         <v>36</v>
       </c>
       <c r="E1" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -1364,52 +1364,52 @@
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="100.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="100.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="C2" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1426,18 +1426,18 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="86.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="86.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.42578125" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.44140625" customWidth="1"/>
     <col min="6" max="6" width="44" customWidth="1"/>
     <col min="7" max="7" width="62" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>26</v>
       </c>
@@ -1451,18 +1451,18 @@
         <v>36</v>
       </c>
       <c r="E1" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -1485,52 +1485,52 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="100.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="100.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="C2" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1547,18 +1547,18 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="88.28515625" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" customWidth="1"/>
-    <col min="5" max="5" width="34.28515625" customWidth="1"/>
-    <col min="6" max="6" width="42.7109375" customWidth="1"/>
-    <col min="7" max="7" width="42.85546875" customWidth="1"/>
+    <col min="1" max="1" width="88.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" customWidth="1"/>
+    <col min="5" max="5" width="34.33203125" customWidth="1"/>
+    <col min="6" max="6" width="42.6640625" customWidth="1"/>
+    <col min="7" max="7" width="42.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>11</v>
       </c>
@@ -1572,18 +1572,18 @@
         <v>36</v>
       </c>
       <c r="E1" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="20" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>41</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -1606,52 +1606,52 @@
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="100.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="100.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.109375" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="C2" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="20" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1668,18 +1668,18 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="88.28515625" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" customWidth="1"/>
-    <col min="6" max="6" width="50.42578125" customWidth="1"/>
-    <col min="7" max="7" width="50.85546875" customWidth="1"/>
+    <col min="1" max="1" width="88.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" customWidth="1"/>
+    <col min="6" max="6" width="50.44140625" customWidth="1"/>
+    <col min="7" max="7" width="50.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>13</v>
       </c>
@@ -1693,18 +1693,18 @@
         <v>36</v>
       </c>
       <c r="E1" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -1727,52 +1727,52 @@
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="100.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="100.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="C2" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1789,18 +1789,18 @@
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="92.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" customWidth="1"/>
+    <col min="1" max="1" width="92.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.44140625" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="35.28515625" customWidth="1"/>
+    <col min="7" max="7" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>15</v>
       </c>
@@ -1814,18 +1814,18 @@
         <v>36</v>
       </c>
       <c r="E1" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -1848,52 +1848,52 @@
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="100.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="100.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="C2" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1910,18 +1910,18 @@
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="88.28515625" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="59.5703125" customWidth="1"/>
-    <col min="6" max="6" width="47.7109375" customWidth="1"/>
-    <col min="7" max="7" width="47.28515625" customWidth="1"/>
+    <col min="1" max="1" width="88.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.5546875" customWidth="1"/>
+    <col min="6" max="6" width="47.6640625" customWidth="1"/>
+    <col min="7" max="7" width="47.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>18</v>
       </c>
@@ -1935,18 +1935,18 @@
         <v>36</v>
       </c>
       <c r="E1" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -1969,52 +1969,52 @@
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="100.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="100.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="C2" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/CastReporting.Reporting.Core/Templates/Application/Compliance reports/NIST-SP800-53R4 Full Detailed Report.xlsx
+++ b/CastReporting.Reporting.Core/Templates/Application/Compliance reports/NIST-SP800-53R4 Full Detailed Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Dev\ReportGenerator\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Compliance reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJG\cast-repos\report-gen\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Compliance reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9C970D-6281-40F7-BCCC-CDEC01F7F06D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8B3AD6-52A8-4B3E-A303-B643CDCE971F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="827" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="827" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
@@ -33,11 +33,11 @@
   </sheets>
   <definedNames>
     <definedName name="AFP_LIST_TOTAL" comment="TABLE;AFP;TYPE=TOTAL" localSheetId="0">Summary!#REF!</definedName>
-    <definedName name="Application_Size" comment="TEXT;APPLICATION_SIZE_TYPE" localSheetId="0">Summary!$G$3</definedName>
+    <definedName name="Application_Size" comment="TEXT;APPLICATION_SIZE_TYPE" localSheetId="0">Summary!$G$4</definedName>
     <definedName name="EmpVersion" comment="TEXT;EMP_VERSION" localSheetId="0">Summary!$E$1</definedName>
-    <definedName name="TABLE_1" comment="TEXT;APPLICATION_NAME" localSheetId="0">Summary!$D$3:$D$3</definedName>
-    <definedName name="TABLE_3" comment="TEXT;METRIC_TECHNICAL_DEBT" localSheetId="0">Summary!$G$4</definedName>
-    <definedName name="TABLE_4" comment="TEXT;LAST_SNAPSHOT_DATE" localSheetId="0">Summary!$D$4:$D$4</definedName>
+    <definedName name="TABLE_1" comment="TEXT;APPLICATION_NAME" localSheetId="0">Summary!$D$4:$D$4</definedName>
+    <definedName name="TABLE_3" comment="TEXT;METRIC_TECHNICAL_DEBT" localSheetId="0">Summary!$G$5</definedName>
+    <definedName name="TABLE_4" comment="TEXT;LAST_SNAPSHOT_DATE" localSheetId="0">Summary!$D$5:$D$5</definedName>
     <definedName name="TABLE_5" comment="TEXT;TODAY_DATE" localSheetId="0">Summary!$F$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -460,7 +460,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -484,16 +484,16 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -503,10 +503,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -534,6 +534,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -571,52 +583,50 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>692727</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1134341</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>55418</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>302202</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>245918</xdr:rowOff>
+      <xdr:colOff>924751</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>65592</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 7" descr="CAST_white_90">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1E5D263-A83D-4C84-B4B0-3DA4DABF1D54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="3870613" y="254577"/>
-          <a:ext cx="1601066" cy="190500"/>
+          <a:off x="9810750" y="199160"/>
+          <a:ext cx="994024" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -911,29 +921,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:O14"/>
+  <dimension ref="B1:O15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" customWidth="1"/>
-    <col min="2" max="2" width="75.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="2" max="2" width="75.28515625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5546875" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" customWidth="1"/>
-    <col min="13" max="13" width="36.6640625" customWidth="1"/>
-    <col min="14" max="14" width="12.88671875" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+    <col min="13" max="13" width="36.7109375" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
@@ -943,7 +953,7 @@
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
     </row>
-    <row r="2" spans="2:15" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
@@ -953,95 +963,103 @@
       <c r="F2" s="2"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="21" t="s">
+    <row r="3" spans="2:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
+    </row>
+    <row r="4" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="9" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G4" s="15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="22" t="s">
+    <row r="5" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="7" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G5" s="10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="18" t="s">
+    <row r="6" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C7" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D7" s="18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="23"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C8" s="18" t="s">
+      <c r="D8" s="23"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C9" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D9" s="18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="16"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="19" t="s">
+      <c r="D10" s="23"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="16"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="34.200000000000003" x14ac:dyDescent="0.3">
-      <c r="B13" s="19" t="s">
+    <row r="14" spans="2:15" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C14" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D14" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E14" s="24" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1063,18 +1081,18 @@
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="88.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.44140625" customWidth="1"/>
-    <col min="6" max="6" width="44.88671875" customWidth="1"/>
-    <col min="7" max="7" width="37.44140625" customWidth="1"/>
+    <col min="1" max="1" width="88.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.42578125" customWidth="1"/>
+    <col min="6" max="6" width="44.85546875" customWidth="1"/>
+    <col min="7" max="7" width="37.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>20</v>
       </c>
@@ -1097,7 +1115,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>56</v>
       </c>
@@ -1122,24 +1140,24 @@
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="100.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.109375" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="100.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>41</v>
       </c>
@@ -1165,7 +1183,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -1184,18 +1202,18 @@
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="87.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.6640625" customWidth="1"/>
-    <col min="6" max="6" width="27.44140625" customWidth="1"/>
-    <col min="7" max="7" width="18.5546875" customWidth="1"/>
+    <col min="1" max="1" width="87.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.7109375" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>22</v>
       </c>
@@ -1218,7 +1236,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>58</v>
       </c>
@@ -1243,24 +1261,24 @@
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="100.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.109375" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="100.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>41</v>
       </c>
@@ -1286,7 +1304,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -1305,18 +1323,18 @@
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="92.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="92.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="57.109375" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.140625" customWidth="1"/>
     <col min="6" max="6" width="50" customWidth="1"/>
     <col min="7" max="7" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>24</v>
       </c>
@@ -1339,7 +1357,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>60</v>
       </c>
@@ -1364,24 +1382,24 @@
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="100.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="100.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>41</v>
       </c>
@@ -1407,7 +1425,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -1426,18 +1444,18 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="86.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="86.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.44140625" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.42578125" customWidth="1"/>
     <col min="6" max="6" width="44" customWidth="1"/>
     <col min="7" max="7" width="62" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>26</v>
       </c>
@@ -1460,7 +1478,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>62</v>
       </c>
@@ -1485,24 +1503,24 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="100.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="100.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>41</v>
       </c>
@@ -1528,7 +1546,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -1547,18 +1565,18 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="88.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
-    <col min="5" max="5" width="34.33203125" customWidth="1"/>
-    <col min="6" max="6" width="42.6640625" customWidth="1"/>
-    <col min="7" max="7" width="42.88671875" customWidth="1"/>
+    <col min="1" max="1" width="88.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="34.28515625" customWidth="1"/>
+    <col min="6" max="6" width="42.7109375" customWidth="1"/>
+    <col min="7" max="7" width="42.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>11</v>
       </c>
@@ -1581,7 +1599,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>40</v>
       </c>
@@ -1606,24 +1624,24 @@
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="100.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.109375" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="100.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>41</v>
       </c>
@@ -1649,7 +1667,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -1668,18 +1686,18 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="88.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
-    <col min="5" max="5" width="53.109375" customWidth="1"/>
-    <col min="6" max="6" width="50.44140625" customWidth="1"/>
-    <col min="7" max="7" width="50.88671875" customWidth="1"/>
+    <col min="1" max="1" width="88.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" customWidth="1"/>
+    <col min="6" max="6" width="50.42578125" customWidth="1"/>
+    <col min="7" max="7" width="50.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>13</v>
       </c>
@@ -1702,7 +1720,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>50</v>
       </c>
@@ -1727,24 +1745,24 @@
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="100.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.88671875" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="100.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>41</v>
       </c>
@@ -1770,7 +1788,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -1789,18 +1807,18 @@
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="92.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.44140625" customWidth="1"/>
+    <col min="1" max="1" width="92.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="35.33203125" customWidth="1"/>
+    <col min="7" max="7" width="35.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>15</v>
       </c>
@@ -1823,7 +1841,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>52</v>
       </c>
@@ -1848,24 +1866,24 @@
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="100.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.109375" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="100.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>41</v>
       </c>
@@ -1891,7 +1909,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -1910,18 +1928,18 @@
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="88.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="59.5546875" customWidth="1"/>
-    <col min="6" max="6" width="47.6640625" customWidth="1"/>
-    <col min="7" max="7" width="47.33203125" customWidth="1"/>
+    <col min="1" max="1" width="88.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.5703125" customWidth="1"/>
+    <col min="6" max="6" width="47.7109375" customWidth="1"/>
+    <col min="7" max="7" width="47.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>18</v>
       </c>
@@ -1944,7 +1962,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>54</v>
       </c>
@@ -1969,24 +1987,24 @@
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="100.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="100.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>41</v>
       </c>
@@ -2012,7 +2030,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
